--- a/source_analyses/EU27_european_union/2019/industry/input_industry_metal_aluminium.xlsx
+++ b/source_analyses/EU27_european_union/2019/industry/input_industry_metal_aluminium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/source_analyses/EU27_european_union/2019/6_industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/source_analyses/EU27_european_union/2019/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2287679A-6A04-9B45-9759-40C7D01B1233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4E86F-9998-3B46-A339-2833A826BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="-33340" windowWidth="30080" windowHeight="32340" xr2:uid="{3179A5A6-48ED-C547-BA8C-7C1CBBF06CD1}"/>
+    <workbookView xWindow="10740" yWindow="-28300" windowWidth="30080" windowHeight="27340" xr2:uid="{3179A5A6-48ED-C547-BA8C-7C1CBBF06CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
   <si>
     <t>AT</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>RS</t>
   </si>
   <si>
     <t>MT</t>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971169BD-BF7E-EF49-B603-78F1456B662F}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,23 +809,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f>SUMIF(G2:G32,TRUE,C2:C32)</f>
+        <v>2.1149999999999998</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <f>SUMIF(G2:G33,TRUE,C2:C33)</f>
-        <v>2.1149999999999998</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1043,7 +1040,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -1181,13 +1178,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1196,21 +1193,21 @@
         <v>2019</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.12</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1227,13 +1224,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
-        <v>6.8000000000000005E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -1250,13 +1247,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.17499999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -1268,36 +1265,13 @@
         <v>32</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>3.9E-2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33">
-        <v>2019</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{971169BD-BF7E-EF49-B603-78F1456B662F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
